--- a/data/pca/factorExposure/factorExposure_2012-11-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-16.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001627468207611134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002049321325264556</v>
+      </c>
+      <c r="C2">
+        <v>-0.03015573827716275</v>
+      </c>
+      <c r="D2">
+        <v>0.004180985089235869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001639087524626924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006907276503568225</v>
+      </c>
+      <c r="C4">
+        <v>-0.0828115047632519</v>
+      </c>
+      <c r="D4">
+        <v>0.07495488963091772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0007253956596347835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01445909382083289</v>
+      </c>
+      <c r="C6">
+        <v>-0.114201850303136</v>
+      </c>
+      <c r="D6">
+        <v>0.03215280940518451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001931044311731408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004864917269896568</v>
+      </c>
+      <c r="C7">
+        <v>-0.05708203721476566</v>
+      </c>
+      <c r="D7">
+        <v>0.03183421906084891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0005162584469104993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006027953566227216</v>
+      </c>
+      <c r="C8">
+        <v>-0.03652403193993178</v>
+      </c>
+      <c r="D8">
+        <v>0.04058919796131552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004196107327386275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005045460095820489</v>
+      </c>
+      <c r="C9">
+        <v>-0.07066920628870331</v>
+      </c>
+      <c r="D9">
+        <v>0.07266692319866588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001866922871565331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005842515909811352</v>
+      </c>
+      <c r="C10">
+        <v>-0.05714154873667934</v>
+      </c>
+      <c r="D10">
+        <v>-0.1946127415326741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004630721010905518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005526132915073145</v>
+      </c>
+      <c r="C11">
+        <v>-0.07899705022785912</v>
+      </c>
+      <c r="D11">
+        <v>0.06240094596667137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00154143637354903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003937036226792426</v>
+      </c>
+      <c r="C12">
+        <v>-0.0631275460920786</v>
+      </c>
+      <c r="D12">
+        <v>0.04827879764780176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001780505702814514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009088804689462181</v>
+      </c>
+      <c r="C13">
+        <v>-0.06971471379124308</v>
+      </c>
+      <c r="D13">
+        <v>0.05679646222260557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002395490950754487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001179356785091953</v>
+      </c>
+      <c r="C14">
+        <v>-0.0434812558908761</v>
+      </c>
+      <c r="D14">
+        <v>0.006573465224809403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001026292312656823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005927810108562017</v>
+      </c>
+      <c r="C15">
+        <v>-0.04194216889395687</v>
+      </c>
+      <c r="D15">
+        <v>0.0313703118200134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002211050619947138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004969902963105019</v>
+      </c>
+      <c r="C16">
+        <v>-0.06432859707281451</v>
+      </c>
+      <c r="D16">
+        <v>0.05356013565142659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001151320413254709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008775579117064534</v>
+      </c>
+      <c r="C20">
+        <v>-0.06588365997160706</v>
+      </c>
+      <c r="D20">
+        <v>0.04274823406637082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005775850728989462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009832017026409151</v>
+      </c>
+      <c r="C21">
+        <v>-0.02141170428136389</v>
+      </c>
+      <c r="D21">
+        <v>0.0376905590268276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01786190790099549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006356068937406097</v>
+      </c>
+      <c r="C22">
+        <v>-0.09459139739948802</v>
+      </c>
+      <c r="D22">
+        <v>0.1154552476333494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01819649840426797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00616961434393822</v>
+      </c>
+      <c r="C23">
+        <v>-0.09541350166417011</v>
+      </c>
+      <c r="D23">
+        <v>0.115403374217072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003817865965286725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005393275339869295</v>
+      </c>
+      <c r="C24">
+        <v>-0.07576073995647944</v>
+      </c>
+      <c r="D24">
+        <v>0.06667698893079177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00594694083684229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003186670459468822</v>
+      </c>
+      <c r="C25">
+        <v>-0.07773255073291689</v>
+      </c>
+      <c r="D25">
+        <v>0.06418283260595335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004361448969532909</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003607616120530256</v>
+      </c>
+      <c r="C26">
+        <v>-0.04004157820150025</v>
+      </c>
+      <c r="D26">
+        <v>0.02222034609194051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007022854766398585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0005765760872508108</v>
+      </c>
+      <c r="C28">
+        <v>-0.1062476559445631</v>
+      </c>
+      <c r="D28">
+        <v>-0.3198029015701748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001537616751382347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002924396574019209</v>
+      </c>
+      <c r="C29">
+        <v>-0.04953246652681587</v>
+      </c>
+      <c r="D29">
+        <v>0.008462866902671813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005126124539683759</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.01009847130710054</v>
+      </c>
+      <c r="C30">
+        <v>-0.1418437364616807</v>
+      </c>
+      <c r="D30">
+        <v>0.104598928532377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-8.79643657044915e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006412358125676585</v>
+      </c>
+      <c r="C31">
+        <v>-0.04444995455901896</v>
+      </c>
+      <c r="D31">
+        <v>0.0288653344527423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0002344214267493611</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003924023225791983</v>
+      </c>
+      <c r="C32">
+        <v>-0.03861640935729303</v>
+      </c>
+      <c r="D32">
+        <v>0.02496572648231353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003844597636332028</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008625119848615042</v>
+      </c>
+      <c r="C33">
+        <v>-0.08690201638190911</v>
+      </c>
+      <c r="D33">
+        <v>0.06468192859111817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005432402977023029</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004059463046445994</v>
+      </c>
+      <c r="C34">
+        <v>-0.05714699751675822</v>
+      </c>
+      <c r="D34">
+        <v>0.05418330732869948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.000780406346206869</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005204863872598707</v>
+      </c>
+      <c r="C35">
+        <v>-0.03998123930204078</v>
+      </c>
+      <c r="D35">
+        <v>0.01840589167803505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00434422777449464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.0009603456477671669</v>
+      </c>
+      <c r="C36">
+        <v>-0.02538322011482106</v>
+      </c>
+      <c r="D36">
+        <v>0.02164226420243242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001247059528718621</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009093922471689109</v>
+      </c>
+      <c r="C38">
+        <v>-0.03438341359054172</v>
+      </c>
+      <c r="D38">
+        <v>0.01449211365862283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01465010935315406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009910636943101091</v>
+      </c>
+      <c r="C39">
+        <v>-0.115180889568021</v>
+      </c>
+      <c r="D39">
+        <v>0.07534372993628644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009961770032239222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003387106088220061</v>
+      </c>
+      <c r="C40">
+        <v>-0.09013233143497427</v>
+      </c>
+      <c r="D40">
+        <v>0.01330115072355719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008588171377923898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007250996923531026</v>
+      </c>
+      <c r="C41">
+        <v>-0.03788103411748681</v>
+      </c>
+      <c r="D41">
+        <v>0.03789320873718813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003814820653244979</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004035084391276535</v>
+      </c>
+      <c r="C43">
+        <v>-0.0535371677937516</v>
+      </c>
+      <c r="D43">
+        <v>0.02402430366041365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0166465857093907</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.00297247432986046</v>
+      </c>
+      <c r="C44">
+        <v>-0.1083012476893454</v>
+      </c>
+      <c r="D44">
+        <v>0.06633312527270288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0007547068314744496</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002073216799483865</v>
+      </c>
+      <c r="C46">
+        <v>-0.03271911040768526</v>
+      </c>
+      <c r="D46">
+        <v>0.03512602674732393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001242441185200963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002397807328484099</v>
+      </c>
+      <c r="C47">
+        <v>-0.03657609022810605</v>
+      </c>
+      <c r="D47">
+        <v>0.02218918427795336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004054815055332216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006850550433103529</v>
+      </c>
+      <c r="C48">
+        <v>-0.03090351889185313</v>
+      </c>
+      <c r="D48">
+        <v>0.032609359729641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01396582726987202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01623415898099661</v>
+      </c>
+      <c r="C49">
+        <v>-0.1842832376693173</v>
+      </c>
+      <c r="D49">
+        <v>0.01690012076852493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.002094568334538094</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003797976527399289</v>
+      </c>
+      <c r="C50">
+        <v>-0.04326886379266203</v>
+      </c>
+      <c r="D50">
+        <v>0.03704065153788307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-7.77748999175306e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004733543458973591</v>
+      </c>
+      <c r="C51">
+        <v>-0.02581639340969475</v>
+      </c>
+      <c r="D51">
+        <v>0.02129341585794712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001205582539173306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02112290087370326</v>
+      </c>
+      <c r="C53">
+        <v>-0.169457271915916</v>
+      </c>
+      <c r="D53">
+        <v>0.02790500096138581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001351539785104635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008845437826246029</v>
+      </c>
+      <c r="C54">
+        <v>-0.05413491381830234</v>
+      </c>
+      <c r="D54">
+        <v>0.04571243082781429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00608040476089687</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009550749654336109</v>
+      </c>
+      <c r="C55">
+        <v>-0.1101749758342818</v>
+      </c>
+      <c r="D55">
+        <v>0.03914323190565223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0007662661338489563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02037243109386785</v>
+      </c>
+      <c r="C56">
+        <v>-0.1746199586704143</v>
+      </c>
+      <c r="D56">
+        <v>0.01826112476657322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00980404754977942</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01950711528737228</v>
+      </c>
+      <c r="C58">
+        <v>-0.109851438122166</v>
+      </c>
+      <c r="D58">
+        <v>0.06232664036161168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009176269308977426</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01050269396952618</v>
+      </c>
+      <c r="C59">
+        <v>-0.1658931981402815</v>
+      </c>
+      <c r="D59">
+        <v>-0.3323619494009448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.006083494526820481</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02526414146112696</v>
+      </c>
+      <c r="C60">
+        <v>-0.2240418439512674</v>
+      </c>
+      <c r="D60">
+        <v>0.02875394840565637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01569006229495805</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00169741641058946</v>
+      </c>
+      <c r="C61">
+        <v>-0.09468617974717938</v>
+      </c>
+      <c r="D61">
+        <v>0.05659669641420791</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1591297603754494</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1477762093913499</v>
+      </c>
+      <c r="C62">
+        <v>-0.09440499994734775</v>
+      </c>
+      <c r="D62">
+        <v>0.03698167858521309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0009680904031446646</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006760886650672938</v>
+      </c>
+      <c r="C63">
+        <v>-0.05452993627443512</v>
+      </c>
+      <c r="D63">
+        <v>0.02600764438623544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.001128015063403542</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01546098604298276</v>
+      </c>
+      <c r="C64">
+        <v>-0.1053454267273813</v>
+      </c>
+      <c r="D64">
+        <v>0.06215286021326839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001759654035221813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01799950622556367</v>
+      </c>
+      <c r="C65">
+        <v>-0.1244027541454505</v>
+      </c>
+      <c r="D65">
+        <v>0.02222839332654091</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008316996408692755</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01341544268974921</v>
+      </c>
+      <c r="C66">
+        <v>-0.1593142519511537</v>
+      </c>
+      <c r="D66">
+        <v>0.1139604127428763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002824110913861715</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01557925897350409</v>
+      </c>
+      <c r="C67">
+        <v>-0.06538891183673431</v>
+      </c>
+      <c r="D67">
+        <v>0.02648678935428055</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007171267188028842</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001154580436674613</v>
+      </c>
+      <c r="C68">
+        <v>-0.08707820266215062</v>
+      </c>
+      <c r="D68">
+        <v>-0.2612975155288728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002331950419498781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006110252220667547</v>
+      </c>
+      <c r="C69">
+        <v>-0.05075912254103142</v>
+      </c>
+      <c r="D69">
+        <v>0.03731856873246969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004383993266640466</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001794262420518425</v>
+      </c>
+      <c r="C70">
+        <v>-0.003008565248350089</v>
+      </c>
+      <c r="D70">
+        <v>0.001846451581325209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001504446529257639</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006206094040514278</v>
+      </c>
+      <c r="C71">
+        <v>-0.09416924109632872</v>
+      </c>
+      <c r="D71">
+        <v>-0.3035715292496102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00615664297463416</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01646239210284426</v>
+      </c>
+      <c r="C72">
+        <v>-0.1532471424421711</v>
+      </c>
+      <c r="D72">
+        <v>0.01449380677579193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01622214207969246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03139583544310653</v>
+      </c>
+      <c r="C73">
+        <v>-0.2813653917014618</v>
+      </c>
+      <c r="D73">
+        <v>0.05912929985851176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.007172021233223249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002248373000202143</v>
+      </c>
+      <c r="C74">
+        <v>-0.1034362225625194</v>
+      </c>
+      <c r="D74">
+        <v>0.03477987414013357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004067565658796134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01161736153778961</v>
+      </c>
+      <c r="C75">
+        <v>-0.1229663357348854</v>
+      </c>
+      <c r="D75">
+        <v>0.0221944498317726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005304147553311878</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02281367543946854</v>
+      </c>
+      <c r="C76">
+        <v>-0.1492288076806952</v>
+      </c>
+      <c r="D76">
+        <v>0.05578269348519777</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.00370782010768258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02245245806613534</v>
+      </c>
+      <c r="C77">
+        <v>-0.1152533278892641</v>
+      </c>
+      <c r="D77">
+        <v>0.0794320596020294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>2.282966538231757e-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01528437238073957</v>
+      </c>
+      <c r="C78">
+        <v>-0.09618398096806853</v>
+      </c>
+      <c r="D78">
+        <v>0.07210561136954138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02155953728782989</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0383382135378875</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568751598954514</v>
+      </c>
+      <c r="D79">
+        <v>0.03220609317015196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005183172576337164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009973946234353194</v>
+      </c>
+      <c r="C80">
+        <v>-0.03936995757880471</v>
+      </c>
+      <c r="D80">
+        <v>0.02892308396575405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0004662996324087087</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01567331487812694</v>
+      </c>
+      <c r="C81">
+        <v>-0.1286921572057798</v>
+      </c>
+      <c r="D81">
+        <v>0.04008308999288233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002333323916146195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02018007092143728</v>
+      </c>
+      <c r="C82">
+        <v>-0.1398613373489747</v>
+      </c>
+      <c r="D82">
+        <v>0.04335447223591591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.005838209273140708</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01030060395482083</v>
+      </c>
+      <c r="C83">
+        <v>-0.05276520664530877</v>
+      </c>
+      <c r="D83">
+        <v>0.05712448429922421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01288490192911839</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01159945020692451</v>
+      </c>
+      <c r="C84">
+        <v>-0.03725444967648889</v>
+      </c>
+      <c r="D84">
+        <v>-5.292589160495593e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01207008728970941</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02936110935558064</v>
+      </c>
+      <c r="C85">
+        <v>-0.1253968296208656</v>
+      </c>
+      <c r="D85">
+        <v>0.04307122448345604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003307157293257766</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00464456232510519</v>
+      </c>
+      <c r="C86">
+        <v>-0.04845384510676611</v>
+      </c>
+      <c r="D86">
+        <v>0.03101908497400986</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004576584939239262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01093302344100393</v>
+      </c>
+      <c r="C87">
+        <v>-0.128788863279594</v>
+      </c>
+      <c r="D87">
+        <v>0.07268112974568107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01131233042793164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002560472595778998</v>
+      </c>
+      <c r="C88">
+        <v>-0.06454532830882131</v>
+      </c>
+      <c r="D88">
+        <v>0.02019784685011645</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01557634641825482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001000111303049451</v>
+      </c>
+      <c r="C89">
+        <v>-0.1477249728038583</v>
+      </c>
+      <c r="D89">
+        <v>-0.3293952248263112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003175520433713225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007065053172641616</v>
+      </c>
+      <c r="C90">
+        <v>-0.1214593634016059</v>
+      </c>
+      <c r="D90">
+        <v>-0.3169919277969548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001430353629799558</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01050465153747509</v>
+      </c>
+      <c r="C91">
+        <v>-0.1001019276233578</v>
+      </c>
+      <c r="D91">
+        <v>0.02337658258214017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01047942770499068</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001403019350608301</v>
+      </c>
+      <c r="C92">
+        <v>-0.1355772839696329</v>
+      </c>
+      <c r="D92">
+        <v>-0.3216815631897088</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0022291663302197</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005536270583695363</v>
+      </c>
+      <c r="C93">
+        <v>-0.106262843266815</v>
+      </c>
+      <c r="D93">
+        <v>-0.3009266065956856</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0003131236498384378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02262237201048197</v>
+      </c>
+      <c r="C94">
+        <v>-0.1456542309523274</v>
+      </c>
+      <c r="D94">
+        <v>0.05160786152270486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003332938769508324</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01769806305867075</v>
+      </c>
+      <c r="C95">
+        <v>-0.1246224689455583</v>
+      </c>
+      <c r="D95">
+        <v>0.05914793073715664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.00223740080768486</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03623501126641752</v>
+      </c>
+      <c r="C97">
+        <v>-0.217976908882912</v>
+      </c>
+      <c r="D97">
+        <v>-0.01486921173005464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004245082473394105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03795617105570461</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495925987153457</v>
+      </c>
+      <c r="D98">
+        <v>0.0478487224177597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9850993568971844</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9814721490242501</v>
+      </c>
+      <c r="C99">
+        <v>0.1197954585756788</v>
+      </c>
+      <c r="D99">
+        <v>-0.02564631162789925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001459454037188977</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002966713824763092</v>
+      </c>
+      <c r="C101">
+        <v>-0.04967441911009881</v>
+      </c>
+      <c r="D101">
+        <v>0.008836621955674565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
